--- a/excel_file/validName.xlsx
+++ b/excel_file/validName.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <r>
       <rPr>
@@ -232,22 +232,28 @@
     <t>Test result</t>
   </si>
   <si>
-    <t>array("0"=&gt;"array("what"=&gt;"name","how"=&gt;"null","why"=&gt;"名称は必須です。","level"=&gt;"ERROR")")</t>
-  </si>
-  <si>
     <t>Success</t>
   </si>
   <si>
-    <t>array("what"=&gt;"name","how"=&gt;"null","why"=&gt;"名称の長さが不正です。","level"=&gt;"ERROR")</t>
-  </si>
-  <si>
-    <t>tran duy thanh tran duy thanh tran duy thanh</t>
+    <t>null</t>
+  </si>
+  <si>
+    <t>array("what"=&gt;"name","how"=&gt;"null","why"=&gt;"blabe。","level"=&gt;"ERROR")</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
     <t>mạnh</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>array("0"=&gt;"array("what"=&gt;"name","how"=&gt;"null","why"=&gt;"long text","level"=&gt;"ERROR")")</t>
+  </si>
+  <si>
+    <t>nguyễn thế mạnh</t>
   </si>
 </sst>
 </file>
@@ -255,7 +261,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -309,6 +315,24 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF808000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
     </font>
     <font>
       <b val="0"/>
@@ -390,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -457,32 +481,41 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,95 +853,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" customHeight="1" ht="15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:26" customHeight="1" ht="15.75">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:26" customHeight="1" ht="15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:26" customHeight="1" ht="15">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
     </row>
     <row r="5" spans="1:26" customHeight="1" ht="15">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
     </row>
     <row r="6" spans="1:26" customHeight="1" ht="15">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
     </row>
     <row r="7" spans="1:26" customHeight="1" ht="15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="8" spans="1:26" customHeight="1" ht="15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:26" customHeight="1" ht="15">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
     </row>
     <row r="11" spans="1:26" customHeight="1" ht="15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
     </row>
     <row r="12" spans="1:26" customHeight="1" ht="15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
     </row>
     <row r="13" spans="1:26" customHeight="1" ht="15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
     </row>
     <row r="14" spans="1:26" customHeight="1" ht="15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:26" customHeight="1" ht="15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
     </row>
     <row r="16" spans="1:26" customHeight="1" ht="15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" t="s">
@@ -2074,10 +2107,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2085,7 +2118,7 @@
     <col min="1" max="1" width="9.140625" customWidth="true" style="4"/>
     <col min="2" max="2" width="9.140625" customWidth="true" style="4"/>
     <col min="4" max="4" width="13.28515625" customWidth="true" style="0"/>
-    <col min="5" max="5" width="49.42578125" customWidth="true" style="0"/>
+    <col min="5" max="5" width="86.140625" customWidth="true" style="0"/>
     <col min="6" max="6" width="22.140625" customWidth="true" style="0"/>
     <col min="8" max="8" width="31.140625" customWidth="true" style="0"/>
     <col min="9" max="9" width="14.42578125" customWidth="true" style="18"/>
@@ -2110,10 +2143,10 @@
       <c r="F1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="24" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2129,20 +2162,20 @@
         <v>19</v>
       </c>
       <c r="D2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="H2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>37</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>38</v>
       </c>
       <c r="J2" s="11"/>
     </row>
@@ -2160,15 +2193,17 @@
       <c r="E3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="26" t="b">
+      <c r="F3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="29" t="s">
-        <v>38</v>
+      <c r="I3" s="26" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2182,20 +2217,20 @@
       <c r="D4" s="19">
         <v>4</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>41</v>
       </c>
       <c r="J4" s="11"/>
       <c r="L4" s="11"/>
@@ -2204,7 +2239,9 @@
       <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="19" t="s">
         <v>16</v>
       </c>
@@ -2215,16 +2252,16 @@
         <v>18</v>
       </c>
       <c r="F5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="G5" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2236,24 +2273,27 @@
         <v>16</v>
       </c>
       <c r="D6" s="19">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>38</v>
+      <c r="I6" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="E7" s="29"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
